--- a/input/capacity/additional-units-hydro2stage.xlsx
+++ b/input/capacity/additional-units-hydro2stage.xlsx
@@ -232,8 +232,8 @@
   </sheetPr>
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -316,7 +316,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -360,7 +360,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -378,8 +378,8 @@
       <c r="E6" s="4" t="n">
         <v>2025</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>100</v>
+      <c r="F6" s="1" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,7 +396,7 @@
         <v>2040</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,7 +1377,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/input/capacity/additional-units-hydro2stage.xlsx
+++ b/input/capacity/additional-units-hydro2stage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capacity" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -232,7 +232,7 @@
   </sheetPr>
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1375,10 +1375,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1393,6 +1393,12 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -1401,10 +1407,26 @@
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>2040</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>2025</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>

--- a/input/capacity/additional-units-hydro2stage.xlsx
+++ b/input/capacity/additional-units-hydro2stage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Capacity" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Remove_units_by_node" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Capacity" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Remove_units_by_node" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Capacity!$A$1:$J$65</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -205,7 +205,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -213,7 +213,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -225,15 +225,121 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -277,7 +383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -299,7 +405,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -365,7 +471,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -400,25 +506,61 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="n">
+        <v>1800</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
@@ -1358,7 +1500,13 @@
       <c r="E158" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J65"/>
+  <autoFilter ref="A1:J65">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Distributed Energy"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1377,8 +1525,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1429,8 +1577,18 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>2030</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
